--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 9</t>
   </si>
@@ -239,15 +239,6 @@
   </si>
   <si>
     <t>Tree street 29</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t>0645554478</t>
-  </si>
-  <si>
-    <t>55 Volstruis Avenue 9986</t>
   </si>
   <si>
     <t>Rita Ora</t>
@@ -1124,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1228,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1595,19 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="81" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -2908,35 +2886,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="352">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s" s="353">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s" s="354">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="355">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="359">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s" s="360">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>

--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -22,7 +22,7 @@
     <t/>
   </si>
   <si>
-    <t>Driver: Collection - 021 551 4677</t>
+    <t>Driver: Collection - -</t>
   </si>
   <si>
     <t>Route: 0</t>
@@ -124,7 +124,7 @@
     <t>Keanu Arendze</t>
   </si>
   <si>
-    <t>Driver: Keanu - 074 644 6895</t>
+    <t>Driver: Michael - 012 345 6789</t>
   </si>
   <si>
     <t>Route: 1</t>
@@ -226,7 +226,7 @@
     <t>ergfdzf</t>
   </si>
   <si>
-    <t>Driver: Michael - 078 965 9658</t>
+    <t>Driver: Keanu - 987 654 3210</t>
   </si>
   <si>
     <t>Route: 2</t>

--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -232,7 +232,7 @@
     <t>Route: 2</t>
   </si>
   <si>
-    <t>Indiana Jones</t>
+    <t>Indianah Jones</t>
   </si>
   <si>
     <t>0987878765</t>
@@ -2305,7 +2305,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s" s="180">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">

--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="155">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 9</t>
   </si>
@@ -124,6 +124,120 @@
     <t>Keanu Arendze</t>
   </si>
   <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>0782821188</t>
+  </si>
+  <si>
+    <t>Rene Woodford</t>
+  </si>
+  <si>
+    <t>0876665555</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>0782828252</t>
+  </si>
+  <si>
+    <t>Danny Zuko</t>
+  </si>
+  <si>
+    <t>0219876655</t>
+  </si>
+  <si>
+    <t>Jimmy Olsen</t>
+  </si>
+  <si>
+    <t>0897776552</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>0782725541</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>0876666552</t>
+  </si>
+  <si>
+    <t>Ronald Weasly</t>
+  </si>
+  <si>
+    <t>0876655252</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>0785524422</t>
+  </si>
+  <si>
+    <t>Rowena Ravenclaw</t>
+  </si>
+  <si>
+    <t>0781828292</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
+    <t>0786552662</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>0786665254</t>
+  </si>
+  <si>
+    <t>Ginny Weasly</t>
+  </si>
+  <si>
+    <t>0782525161</t>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+  </si>
+  <si>
+    <t>0897776625</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>0897726552</t>
+  </si>
+  <si>
+    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
+  </si>
+  <si>
+    <t>0782625252</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>0987776542</t>
+  </si>
+  <si>
+    <t>Peter Petagru</t>
+  </si>
+  <si>
+    <t>0786665252</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>0876662526</t>
+  </si>
+  <si>
     <t>Driver: Michael - 012 345 6789</t>
   </si>
   <si>
@@ -226,6 +340,51 @@
     <t>ergfdzf</t>
   </si>
   <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>0219976485</t>
+  </si>
+  <si>
+    <t>49 Barry Street</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>0698847563</t>
+  </si>
+  <si>
+    <t>979 Westcliff Avenue, 7560</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>0324458762</t>
+  </si>
+  <si>
+    <t>83 Umbar Avenue, 7693</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>0786665555</t>
+  </si>
+  <si>
+    <t>4th Floor, The Daily Planet</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>0786665525</t>
+  </si>
+  <si>
+    <t>Griffindor common room, Hogwarts School of Witchcraft and Wizardry</t>
+  </si>
+  <si>
     <t>Driver: Keanu - 987 654 3210</t>
   </si>
   <si>
@@ -293,6 +452,33 @@
   </si>
   <si>
     <t>9 Dumbo Park</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>0647759832</t>
+  </si>
+  <si>
+    <t>56 Malabu Estate</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>0879971172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Steyn Street, Belgravia </t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>0897654433</t>
+  </si>
+  <si>
+    <t>12 Darling road</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="595">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1233,6 +1419,253 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1517,6 +1950,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -1659,6 +2157,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1690,15 +2227,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.8125" customWidth="true"/>
+    <col min="1" max="1" width="38.4375" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="3.90625" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="62.7578125" customWidth="true"/>
-    <col min="9" max="9" width="31.37890625" customWidth="true"/>
+    <col min="8" max="8" width="49.0078125" customWidth="true"/>
+    <col min="9" max="9" width="24.50390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2104,6 +2641,557 @@
         <v>16</v>
       </c>
       <c r="I14" t="s" s="126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="127">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="128">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="131">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="134">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="136">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="137">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="143">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="145">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="146">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="151">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="152">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s" s="153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="154">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="155">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="161">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="163">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="164">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="170">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s" s="171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="172">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="173">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s" s="174">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="179">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s" s="180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="181">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s" s="182">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s" s="183">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s" s="188">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s" s="189">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="190">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s" s="191">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s" s="197">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="199">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s" s="200">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s" s="206">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="207">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="208">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s" s="209">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s" s="214">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s" s="215">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="217">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s" s="218">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s" s="224">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="226">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s" s="227">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s" s="228">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="229">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s" s="231">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s" s="233">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s" s="234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="235">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s" s="236">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s" s="242">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s" s="243">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="244">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s" s="245">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s" s="251">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s" s="252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="253">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s" s="254">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s" s="260">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="261">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="262">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s" s="263">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s" s="269">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="270">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="271">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s" s="272">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s" s="273">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="274">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s" s="275">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s" s="278">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="279">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="280">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s" s="281">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s" s="286">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s" s="287">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s" s="288">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="289">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s" s="290">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s" s="294">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s" s="295">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s" s="296">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="297">
         <v>16</v>
       </c>
     </row>
@@ -2135,437 +3223,582 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="127">
+      <c r="A1" t="s" s="298">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="134">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s" s="135">
-        <v>37</v>
+      <c r="B1" t="s" s="299">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="305">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s" s="306">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="144">
+      <c r="A2" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="314">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="315">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="145">
+      <c r="A3" t="s" s="316">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="146">
+      <c r="B3" t="s" s="317">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="147">
+      <c r="C3" t="s" s="318">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="148">
+      <c r="D3" t="s" s="319">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="149">
+      <c r="E3" t="s" s="320">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="150">
+      <c r="F3" t="s" s="321">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="151">
+      <c r="G3" t="s" s="322">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="152">
+      <c r="H3" t="s" s="323">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="153">
+      <c r="I3" t="s" s="324">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="154">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="155">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="161">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="162">
+      <c r="A4" t="s" s="325">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="326">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="332">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="333">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="163">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="164">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="165">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="168">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="170">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s" s="171">
+      <c r="A5" t="s" s="334">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s" s="335">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="340">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="341">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="342">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="172">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s" s="173">
+      <c r="A6" t="s" s="343">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="344">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="179">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s" s="180">
+      <c r="C6" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="350">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s" s="351">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="181">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s" s="182">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="188">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s" s="189">
+      <c r="A7" t="s" s="352">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s" s="353">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s" s="354">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="359">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="190">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s" s="191">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="193">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="197">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="198">
+      <c r="A8" t="s" s="361">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s" s="362">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s" s="363">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="368">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s" s="369">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="199">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s" s="200">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="206">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s" s="207">
+      <c r="A9" t="s" s="370">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s" s="371">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="377">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s" s="378">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="208">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s" s="209">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="211">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="212">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="213">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="214">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="215">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s" s="216">
+      <c r="A10" t="s" s="379">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="380">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="385">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="386">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s" s="387">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="217">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s" s="218">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s" s="219">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="220">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="221">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="223">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="224">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s" s="225">
+      <c r="A11" t="s" s="388">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="389">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="393">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="395">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s" s="396">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="226">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s" s="227">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s" s="228">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="231">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="232">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s" s="233">
-        <v>63</v>
-      </c>
-      <c r="I12" t="s" s="234">
+      <c r="A12" t="s" s="397">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s" s="398">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="404">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s" s="405">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="235">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s" s="236">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="240">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s" s="241">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="242">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s" s="243">
+      <c r="A13" t="s" s="406">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s" s="407">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="413">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s" s="414">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="244">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s" s="245">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="250">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="251">
-        <v>63</v>
-      </c>
-      <c r="I14" t="s" s="252">
+      <c r="A14" t="s" s="415">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s" s="416">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="422">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s" s="423">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="253">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s" s="254">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s" s="255">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s" s="257">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s" s="260">
-        <v>69</v>
-      </c>
-      <c r="I15" t="s" s="261">
+      <c r="A15" t="s" s="424">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="425">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s" s="426">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="428">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="430">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="431">
+        <v>107</v>
+      </c>
+      <c r="I15" t="s" s="432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="433">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s" s="434">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="438">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="440">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s" s="441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="442">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s" s="443">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="449">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s" s="450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="451">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s" s="452">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="456">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="458">
+        <v>116</v>
+      </c>
+      <c r="I18" t="s" s="459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="460">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s" s="461">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="465">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="467">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s" s="468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="469">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s" s="470">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="476">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s" s="477">
         <v>1</v>
       </c>
     </row>
@@ -2597,292 +3830,379 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="262">
+      <c r="A1" t="s" s="478">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="263">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="267">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="268">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="269">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s" s="270">
-        <v>71</v>
+      <c r="B1" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="480">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="481">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="482">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="483">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="485">
+        <v>123</v>
+      </c>
+      <c r="I1" t="s" s="486">
+        <v>124</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="271">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="278">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="279">
+      <c r="A2" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="490">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="491">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="492">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="495">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="280">
+      <c r="A3" t="s" s="496">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="281">
+      <c r="B3" t="s" s="497">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="282">
+      <c r="C3" t="s" s="498">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="283">
+      <c r="D3" t="s" s="499">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="284">
+      <c r="E3" t="s" s="500">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="285">
+      <c r="F3" t="s" s="501">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="286">
+      <c r="G3" t="s" s="502">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="287">
+      <c r="H3" t="s" s="503">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="288">
+      <c r="I3" t="s" s="504">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="289">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s" s="290">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s" s="291">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="292">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="293">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="294">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="295">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="296">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="297">
+      <c r="A4" t="s" s="505">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s" s="506">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="512">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s" s="513">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="298">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s" s="299">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s" s="300">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="301">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="305">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s" s="306">
+      <c r="A5" t="s" s="514">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s" s="515">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s" s="516">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="518">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="520">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="521">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s" s="522">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="307">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s" s="308">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="310">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="314">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="315">
+      <c r="A6" t="s" s="523">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s" s="524">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s" s="525">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="526">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="527">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="528">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="530">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s" s="531">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="316">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s" s="317">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="319">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="320">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="321">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="322">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="323">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s" s="324">
+      <c r="A7" t="s" s="532">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s" s="533">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="537">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="539">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s" s="540">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="325">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s" s="326">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s" s="327">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="328">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="330">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="331">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="332">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s" s="333">
+      <c r="A8" t="s" s="541">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s" s="542">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="548">
+        <v>139</v>
+      </c>
+      <c r="I8" t="s" s="549">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="334">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s" s="335">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="340">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="341">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s" s="342">
+      <c r="A9" t="s" s="550">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s" s="551">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="557">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s" s="558">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="343">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s" s="344">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="348">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="350">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s" s="351">
+      <c r="A10" t="s" s="559">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s" s="560">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="566">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s" s="567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="568">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s" s="569">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s" s="570">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="571">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="575">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s" s="576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="577">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="578">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s" s="579">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="580">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="581">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="582">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="584">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s" s="585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="586">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="587">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s" s="588">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="590">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="591">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="592">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="593">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s" s="594">
         <v>1</v>
       </c>
     </row>

--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 9 - 03 Oct 2016</t>
   </si>
@@ -61,24 +61,33 @@
     <t>AdditionalInfo</t>
   </si>
   <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>0364498572</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Darth Vader</t>
   </si>
   <si>
     <t>0788656465</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Afro Jack</t>
   </si>
   <si>
     <t>0324487569</t>
   </si>
   <si>
+    <t>Thu Oct 2016 17:48:41</t>
+  </si>
+  <si>
     <t>Driver: Michael - 012 345 6789</t>
   </si>
   <si>
@@ -103,6 +112,15 @@
     <t>Hootville 34</t>
   </si>
   <si>
+    <t>Adam Lavine</t>
+  </si>
+  <si>
+    <t>0364478513</t>
+  </si>
+  <si>
+    <t>65 VanD Avenue</t>
+  </si>
+  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -116,6 +134,15 @@
   </si>
   <si>
     <t>Route: 2</t>
+  </si>
+  <si>
+    <t>Rita Ora</t>
+  </si>
+  <si>
+    <t>0356614528</t>
+  </si>
+  <si>
+    <t>57 Djy Avenue</t>
   </si>
   <si>
     <t>Astrix Oblix</t>
@@ -1013,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1087,6 +1114,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -1101,6 +1143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1189,6 +1234,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -1203,6 +1263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1261,6 +1324,21 @@
     <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -1275,6 +1353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -1470,9 +1551,50 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="54">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="55">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="60">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="61">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="63">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="65">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1500,212 +1622,253 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="54">
+      <c r="A1" t="s" s="66">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="55">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="60">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="63">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s" s="64">
-        <v>22</v>
+      <c r="B1" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="71">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="72">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s" s="76">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="71">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="72">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="73">
+      <c r="A2" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="74">
+      <c r="A3" t="s" s="86">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="75">
+      <c r="B3" t="s" s="87">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="76">
+      <c r="C3" t="s" s="88">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="77">
+      <c r="D3" t="s" s="89">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="78">
+      <c r="E3" t="s" s="90">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="79">
+      <c r="F3" t="s" s="91">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="80">
+      <c r="G3" t="s" s="92">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="81">
+      <c r="H3" t="s" s="93">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="82">
+      <c r="I3" t="s" s="94">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="83">
+      <c r="J3" t="s" s="95">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="84">
+      <c r="K3" t="s" s="96">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="85">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="86">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="94">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s" s="95">
+      <c r="A4" t="s" s="97">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="98">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="101">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="106">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="96">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s" s="97">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="101">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="105">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s" s="106">
+      <c r="A5" t="s" s="108">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="109">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="113">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="117">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="107">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s" s="108">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="116">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s" s="117">
-        <v>1</v>
+      <c r="A6" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="120">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="121">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="128">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="130">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="131">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="134">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="135">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="139">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="141">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1733,142 +1896,183 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="118">
+      <c r="A1" t="s" s="142">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="125">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="127">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s" s="128">
-        <v>33</v>
+      <c r="B1" t="s" s="143">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="144">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="151">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="152">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="135">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="137">
+      <c r="A2" t="s" s="153">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="161">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="138">
+      <c r="A3" t="s" s="162">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="139">
+      <c r="B3" t="s" s="163">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="140">
+      <c r="C3" t="s" s="164">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="141">
+      <c r="D3" t="s" s="165">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="142">
+      <c r="E3" t="s" s="166">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="143">
+      <c r="F3" t="s" s="167">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="144">
+      <c r="G3" t="s" s="168">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="145">
+      <c r="H3" t="s" s="169">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="146">
+      <c r="I3" t="s" s="170">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="147">
+      <c r="J3" t="s" s="171">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="148">
+      <c r="K3" t="s" s="172">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="149">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="150">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="158">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s" s="159">
-        <v>1</v>
+      <c r="A4" t="s" s="173">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="174">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="180">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="181">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="182">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="184">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="185">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="189">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="191">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="193">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s" s="194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="195">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/DriverReports Route (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="171">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 9 - 03 Oct 2016</t>
   </si>
@@ -61,31 +61,217 @@
     <t>AdditionalInfo</t>
   </si>
   <si>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>0746446895</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Dane Left</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>0989898987</t>
+  </si>
+  <si>
     <t>Selena Gomez</t>
   </si>
   <si>
     <t>0364498572</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Darth Vader</t>
   </si>
   <si>
     <t>0788656465</t>
   </si>
   <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
-  </si>
-  <si>
-    <t>Thu Oct 2016 17:48:41</t>
+    <t>Dennis Menace</t>
+  </si>
+  <si>
+    <t>0987656543</t>
+  </si>
+  <si>
+    <t>Rossouw's street 45</t>
+  </si>
+  <si>
+    <t>Bonnie Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>0783547463</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>0283746574</t>
+  </si>
+  <si>
+    <t>Keanu Arendze</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>0782821188</t>
+  </si>
+  <si>
+    <t>Rene Woodford</t>
+  </si>
+  <si>
+    <t>0876665555</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>0782828252</t>
+  </si>
+  <si>
+    <t>Danny Zuko</t>
+  </si>
+  <si>
+    <t>0219876655</t>
+  </si>
+  <si>
+    <t>Jimmy Olsen</t>
+  </si>
+  <si>
+    <t>0897776552</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>0782725541</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>0876666552</t>
+  </si>
+  <si>
+    <t>Ronald Weasly</t>
+  </si>
+  <si>
+    <t>0876655252</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>0785524422</t>
+  </si>
+  <si>
+    <t>Rowena Ravenclaw</t>
+  </si>
+  <si>
+    <t>0781828292</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
+    <t>0786552662</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>0786665254</t>
+  </si>
+  <si>
+    <t>Ginny Weasly</t>
+  </si>
+  <si>
+    <t>0782525161</t>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+  </si>
+  <si>
+    <t>0897776625</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>0897726552</t>
+  </si>
+  <si>
+    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
+  </si>
+  <si>
+    <t>0782625252</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>0987776542</t>
+  </si>
+  <si>
+    <t>Peter Petagru</t>
+  </si>
+  <si>
+    <t>0786665252</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>0876662526</t>
+  </si>
+  <si>
+    <t>Karel Bremmer</t>
+  </si>
+  <si>
+    <t>0231153489</t>
+  </si>
+  <si>
+    <t>Luntu Arendze</t>
+  </si>
+  <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>0786663535</t>
+  </si>
+  <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
+    <t>0786662772</t>
+  </si>
+  <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>0873737373</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
+    <t>0782282828</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:21</t>
   </si>
   <si>
     <t>Driver: Michael - 012 345 6789</t>
@@ -94,6 +280,15 @@
     <t>Route: 1</t>
   </si>
   <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>0642253486</t>
+  </si>
+  <si>
+    <t>54 Snowflake Avenue Morgenster Brackenfell 7560</t>
+  </si>
+  <si>
     <t>Harison Ford</t>
   </si>
   <si>
@@ -103,13 +298,37 @@
     <t>25 Du'urbanvale Crescent Vredekloof 6984</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>0111112222</t>
-  </si>
-  <si>
-    <t>Hootville 34</t>
+    <t>Florence NightingGale</t>
+  </si>
+  <si>
+    <t>45 Milk Street, Durbanville</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
+  </si>
+  <si>
+    <t>0796857463</t>
+  </si>
+  <si>
+    <t>White street 28</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>0832534637</t>
+  </si>
+  <si>
+    <t>Tattle avenue 21</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>0786543876</t>
+  </si>
+  <si>
+    <t>Expelliarmus 14</t>
   </si>
   <si>
     <t>Adam Lavine</t>
@@ -121,6 +340,15 @@
     <t>65 VanD Avenue</t>
   </si>
   <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>25 Teemo Street</t>
+  </si>
+  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -130,12 +358,78 @@
     <t>Waarever Rossouw bly</t>
   </si>
   <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>0315524652</t>
+  </si>
+  <si>
+    <t>ergfdzf</t>
+  </si>
+  <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>0219976485</t>
+  </si>
+  <si>
+    <t>49 Barry Street</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>0698847563</t>
+  </si>
+  <si>
+    <t>979 Westcliff Avenue 7560</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>0324458762</t>
+  </si>
+  <si>
+    <t>83 Umbar Avenue 7693</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>0786665555</t>
+  </si>
+  <si>
+    <t>4th Floor, The Daily Planet</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>0786665525</t>
+  </si>
+  <si>
+    <t>Griffindor common room, Hogwarts School of Witchcraft and Wizardry</t>
+  </si>
+  <si>
+    <t>76 Ping Avenue</t>
+  </si>
+  <si>
     <t>Driver: Keanu - 987 654 3210</t>
   </si>
   <si>
     <t>Route: 2</t>
   </si>
   <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>55 Volstruis Avenue 9986</t>
+  </si>
+  <si>
     <t>Rita Ora</t>
   </si>
   <si>
@@ -145,6 +439,33 @@
     <t>57 Djy Avenue</t>
   </si>
   <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>Loonytoon 43</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>29 Teen Avenue</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>0876543767</t>
+  </si>
+  <si>
+    <t>Milkbush street 45</t>
+  </si>
+  <si>
     <t>Astrix Oblix</t>
   </si>
   <si>
@@ -152,6 +473,60 @@
   </si>
   <si>
     <t>Gaul 12</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>0647758942</t>
+  </si>
+  <si>
+    <t>9 Dumbo Park</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>0647759832</t>
+  </si>
+  <si>
+    <t>56 Malabu Estate</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>0879971172</t>
+  </si>
+  <si>
+    <t>17 Steyn Street, Belgravia</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>0897654433</t>
+  </si>
+  <si>
+    <t>12 Darling road</t>
+  </si>
+  <si>
+    <t>Albert Van Dame</t>
+  </si>
+  <si>
+    <t>0316647582</t>
+  </si>
+  <si>
+    <t>asdasdasdasd</t>
+  </si>
+  <si>
+    <t>76 Line Street Melkbos</t>
+  </si>
+  <si>
+    <t>Knock Loud.</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:22</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="812">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1122,6 +1497,501 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1227,7 +2097,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1323,6 +2388,156 @@
     </xf>
     <xf numFmtId="0" fontId="93" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1369,17 +2584,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" customWidth="true"/>
+    <col min="1" max="1" width="38.4375" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
     <col min="8" max="8" width="3.90625" customWidth="true"/>
     <col min="9" max="9" width="3.90625" customWidth="true"/>
-    <col min="10" max="10" width="52.1328125" customWidth="true"/>
+    <col min="10" max="10" width="35.8828125" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="9.375" customWidth="true"/>
-    <col min="11" max="11" width="26.06640625" customWidth="true"/>
+    <col min="11" max="11" width="17.94140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1521,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s" s="44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="45">
         <v>1</v>
@@ -1553,48 +2768,1203 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="55">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="55">
+      <c r="C6" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="60">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="61">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="63">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="65">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="60">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="63">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s" s="64">
+      <c r="B7" t="s" s="66">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="71">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="72">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="74">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="75">
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="65">
-        <v>23</v>
+      <c r="A8" t="s" s="76">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="85">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s" s="86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="88">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="91">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="92">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="96">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="98">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="99">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="101">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="107">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="109">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="110">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="113">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s" s="118">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="120">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="121">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="129">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s" s="130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="131">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="134">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="135">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="140">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s" s="141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="142">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="143">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s" s="144">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="153">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="154">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="161">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="162">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s" s="163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="164">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="165">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="171">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s" s="172">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s" s="173">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="175">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="176">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="180">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="181">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s" s="183">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s" s="184">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="185">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="186">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="187">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="189">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="191">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s" s="195">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s" s="196">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="197">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s" s="198">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s" s="199">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="200">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s" s="206">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s" s="207">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="208">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s" s="209">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="214">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="215">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s" s="216">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s" s="217">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s" s="218">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="219">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s" s="220">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s" s="224">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s" s="225">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s" s="227">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s" s="228">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s" s="229">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="230">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s" s="231">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s" s="233">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s" s="235">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s" s="239">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s" s="240">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="241">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s" s="242">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s" s="243">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="244">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s" s="245">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s" s="250">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s" s="251">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="252">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s" s="253">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s" s="254">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s" s="260">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s" s="261">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s" s="262">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="263">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s" s="264">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s" s="269">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s" s="270">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s" s="271">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s" s="273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="274">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s" s="275">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s" s="278">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s" s="279">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s" s="280">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s" s="281">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s" s="283">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s" s="284">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="285">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s" s="286">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s" s="288">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s" s="294">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s" s="295">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="296">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s" s="297">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s" s="298">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s" s="299">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s" s="305">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s" s="306">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="307">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s" s="308">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s" s="314">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s" s="315">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s" s="316">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s" s="317">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="318">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s" s="319">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s" s="323">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s" s="324">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s" s="327">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s" s="328">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="329">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s" s="330">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s" s="333">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s" s="334">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s" s="335">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s" s="338">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s" s="339">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="340">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s" s="341">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s" s="349">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s" s="350">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="351">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s" s="352">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s" s="353">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s" s="354">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s" s="359">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s" s="360">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s" s="361">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="362">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s" s="363">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s" s="370">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s" s="371">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s" s="372">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="373">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="374">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s" s="378">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s" s="380">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s" s="382">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s" s="383">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="384">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s" s="385">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s" s="386">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s" s="387">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s" s="388">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s" s="389">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s" s="393">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s" s="394">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="395">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s" s="396">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s" s="397">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s" s="398">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s" s="404">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s" s="405">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="406">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s" s="407">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s" s="414">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s" s="415">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s" s="416">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="417">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s" s="418">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s" s="426">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s" s="427">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="428">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A41:K41"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1608,267 +3978,722 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.9375" customWidth="true"/>
+    <col min="1" max="1" width="20.625" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
     <col min="8" max="8" width="3.90625" customWidth="true"/>
     <col min="9" max="9" width="3.90625" customWidth="true"/>
-    <col min="10" max="10" width="50.8828125" customWidth="true"/>
+    <col min="10" max="10" width="47.7578125" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="9.375" customWidth="true"/>
-    <col min="11" max="11" width="25.44140625" customWidth="true"/>
+    <col min="11" max="11" width="23.87890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="66">
+      <c r="A1" t="s" s="429">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="71">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="72">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="75">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s" s="76">
-        <v>25</v>
+      <c r="B1" t="s" s="430">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="431">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="432">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="433">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="434">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="438">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s" s="439">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="80">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="85">
+      <c r="A2" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="448">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="86">
+      <c r="A3" t="s" s="449">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="87">
+      <c r="B3" t="s" s="450">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="88">
+      <c r="C3" t="s" s="451">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="89">
+      <c r="D3" t="s" s="452">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="90">
+      <c r="E3" t="s" s="453">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="91">
+      <c r="F3" t="s" s="454">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="92">
+      <c r="G3" t="s" s="455">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="93">
+      <c r="H3" t="s" s="456">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="94">
+      <c r="I3" t="s" s="457">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="95">
+      <c r="J3" t="s" s="458">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="96">
+      <c r="K3" t="s" s="459">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="97">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="98">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="101">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="106">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s" s="107">
+      <c r="A4" t="s" s="460">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="461">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="465">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="469">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="470">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="108">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s" s="109">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="117">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s" s="118">
+      <c r="A5" t="s" s="471">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s" s="472">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="478">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="480">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s" s="481">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="119">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="120">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="125">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="128">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s" s="129">
-        <v>1</v>
+      <c r="A6" t="s" s="482">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="483">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="486">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="490">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="491">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s" s="492">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="130">
+      <c r="A7" t="s" s="493">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="494">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="498">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="502">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s" s="503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="504">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s" s="505">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s" s="506">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="513">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s" s="514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="515">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="516">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="518">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="520">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="521">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="522">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="523">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="524">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="526">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="527">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s" s="528">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="530">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="535">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s" s="536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="537">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="538">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s" s="546">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s" s="547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="548">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="549">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="557">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="559">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="560">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="568">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s" s="569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="570">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s" s="571">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="576">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="578">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="579">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s" s="580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="581">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s" s="582">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="588">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="590">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s" s="591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="592">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s" s="593">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="599">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s" s="600">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s" s="601">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s" s="602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="603">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s" s="604">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="609">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="610">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s" s="612">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s" s="613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="614">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s" s="615">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="618">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="620">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="621">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s" s="622">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s" s="623">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s" s="624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="625">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s" s="626">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="627">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="628">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="629">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="630">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s" s="633">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s" s="634">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="636">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="131">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="135">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="139">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="141">
-        <v>23</v>
+      <c r="B20" t="s" s="637">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="640">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="641">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="642">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s" s="645">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s" s="646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="647">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A22:K22"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1882,197 +4707,547 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" customWidth="true"/>
+    <col min="1" max="1" width="16.875" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
     <col min="8" max="8" width="3.90625" customWidth="true"/>
     <col min="9" max="9" width="3.90625" customWidth="true"/>
-    <col min="10" max="10" width="52.1328125" customWidth="true"/>
+    <col min="10" max="10" width="50.2578125" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="9.375" customWidth="true"/>
-    <col min="11" max="11" width="26.06640625" customWidth="true"/>
+    <col min="11" max="11" width="25.12890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="142">
+      <c r="A1" t="s" s="648">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="144">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="145">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="151">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="152">
-        <v>39</v>
+      <c r="B1" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="651">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="657">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s" s="658">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="161">
+      <c r="A2" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="660">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="661">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="662">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="667">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="162">
+      <c r="A3" t="s" s="668">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="163">
+      <c r="B3" t="s" s="669">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="164">
+      <c r="C3" t="s" s="670">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="165">
+      <c r="D3" t="s" s="671">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="166">
+      <c r="E3" t="s" s="672">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="167">
+      <c r="F3" t="s" s="673">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="168">
+      <c r="G3" t="s" s="674">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="169">
+      <c r="H3" t="s" s="675">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="170">
+      <c r="I3" t="s" s="676">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="171">
+      <c r="J3" t="s" s="677">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="172">
+      <c r="K3" t="s" s="678">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="173">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s" s="174">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="180">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="181">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="182">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s" s="183">
+      <c r="A4" t="s" s="679">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s" s="680">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s" s="681">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="682">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="683">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="684">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="688">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s" s="689">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="184">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s" s="185">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="188">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="189">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="190">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="191">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="193">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s" s="194">
+      <c r="A5" t="s" s="690">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s" s="691">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s" s="692">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="699">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s" s="700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="701">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s" s="702">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s" s="703">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="704">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="708">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="710">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s" s="711">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="195">
-        <v>23</v>
+      <c r="A7" t="s" s="712">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s" s="713">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="720">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="721">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s" s="722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="723">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s" s="724">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="732">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s" s="733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="734">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s" s="735">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s" s="736">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="737">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="738">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="739">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="740">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="741">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="742">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="743">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s" s="744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="745">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s" s="746">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="751">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="752">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="753">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="754">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s" s="755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="756">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="757">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="762">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="764">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s" s="765">
+        <v>158</v>
+      </c>
+      <c r="K11" t="s" s="766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="767">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s" s="768">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="771">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="772">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="773">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="774">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="775">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="776">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s" s="777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="778">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="779">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s" s="780">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="783">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="785">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="787">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s" s="788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="789">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s" s="790">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="793">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="795">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="796">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="798">
+        <v>167</v>
+      </c>
+      <c r="K14" t="s" s="799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="800">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s" s="801">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s" s="802">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="803">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="804">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="805">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="806">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="807">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="808">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="809">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s" s="810">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="811">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
